--- a/data/autoverkoop.xlsx
+++ b/data/autoverkoop.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\studieboeken\statistiek-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\studieboeken\excelanalyse\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48167117-A129-408C-9433-556FCDA058AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642605F1-6353-48C2-9B6C-EFE43BDB628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56374492-7E1B-434F-975C-40059C024541}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
